--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Dia</t>
   </si>
@@ -43,10 +43,19 @@
     <t>2025-03-18</t>
   </si>
   <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>CARBOMAN-GAS CARBONICO DE MANAUS LTDA</t>
+  </si>
+  <si>
+    <t>59.609.849 LEANDRO CARVALHO DA SILVA</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>CARBOMAN-GAS CARBONICO DE MANAUS LTDA</t>
+    <t>GERBERA COSMETICOS LTDA</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
@@ -55,61 +64,145 @@
     <t>METALURGICA SATO DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>GERBERA COSMETICOS LTDA</t>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000439</t>
+  </si>
+  <si>
+    <t>000052</t>
+  </si>
+  <si>
+    <t>000568</t>
   </si>
   <si>
     <t>000415</t>
   </si>
   <si>
-    <t>000568</t>
+    <t>000053</t>
+  </si>
+  <si>
+    <t>000914</t>
+  </si>
+  <si>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>010456</t>
+  </si>
+  <si>
+    <t>000839</t>
+  </si>
+  <si>
+    <t>010302</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>010178</t>
   </si>
   <si>
     <t>000243</t>
   </si>
   <si>
+    <t>010072</t>
+  </si>
+  <si>
+    <t>010027</t>
+  </si>
+  <si>
+    <t>000579</t>
+  </si>
+  <si>
+    <t>010633</t>
+  </si>
+  <si>
+    <t>000548</t>
+  </si>
+  <si>
     <t>000219</t>
   </si>
   <si>
-    <t>010072</t>
-  </si>
-  <si>
     <t>010002</t>
   </si>
   <si>
-    <t>000548</t>
-  </si>
-  <si>
-    <t>000660</t>
-  </si>
-  <si>
-    <t>000839</t>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000122</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM P VERDE NOBRE CA 41506</t>
+  </si>
+  <si>
+    <t>PAPEL ALUMINIO 30CMx100M</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+    <t>FILME PVC 28X300M ALPFILM</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>CLIPS 4/0 C/50 UNDS NIQUELADO CHAPARRAU</t>
+  </si>
+  <si>
+    <t>ACUCAR CRISTAL ITAMARATI 1KG</t>
+  </si>
+  <si>
+    <t>CAFE TORRADO E MOIDO CLASSICO ALMOFADA SANTA CLARA 250G</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
+    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>REGUA PLASTICA 30 CM LEO E LEO</t>
+  </si>
+  <si>
+    <t>LIVRO PROTOCOLO DE CORRESPONDENCIA 104 FLS</t>
+  </si>
+  <si>
+    <t>CANETA CRISTAL MEDIA AZUL BIC</t>
+  </si>
+  <si>
+    <t>BOBINA TERMICA 80X40 BRANCA 1VIA RIO BRANCO</t>
+  </si>
+  <si>
     <t>FIBRA DE LIMPEZA USO GERAL 102X260mm</t>
   </si>
   <si>
-    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
-  </si>
-  <si>
     <t>PINCEL ATOMICO PILOT 1100P PRETO</t>
   </si>
   <si>
-    <t>BOBINA TERMICA 80X40 BRANCA 1VIA RIO BRANCO</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
-  </si>
-  <si>
-    <t>ACUCAR CRISTAL ITAMARATI 1KG</t>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
 </sst>
 </file>
@@ -467,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,77 +591,77 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>972</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>702</v>
+        <v>2</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -576,25 +669,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>1278</v>
+        <v>33</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -602,103 +695,103 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>426</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
       <c r="C9">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -706,27 +799,391 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>512</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>640</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>186</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>701</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="G10">
-        <v>28</v>
-      </c>
-      <c r="H10" t="b">
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>43</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>-4</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2300</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>148</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>900</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>1268</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>89</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>268</v>
+      </c>
+      <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Dia</t>
   </si>
@@ -37,52 +37,40 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-21</t>
+    <t>2025-03-19</t>
   </si>
   <si>
     <t>2025-03-24</t>
   </si>
   <si>
+    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>J R BASTOS</t>
-  </si>
-  <si>
-    <t>LUCAS CLIENTE NOVO</t>
-  </si>
-  <si>
-    <t>000122</t>
-  </si>
-  <si>
-    <t>000434</t>
-  </si>
-  <si>
-    <t>000349</t>
-  </si>
-  <si>
-    <t>000158</t>
-  </si>
-  <si>
-    <t>010456</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
-    <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>AZULIM LIMPA CERAMICAS E AZULEJOS LAVANDA 5L 1:15 START</t>
-  </si>
-  <si>
-    <t>CLIPS 4/0 C/50 UNDS NIQUELADO CHAPARRAU</t>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000276</t>
+  </si>
+  <si>
+    <t>000146</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>DESINFETANTE BRINORT 2L LAVANDA</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
 </sst>
 </file>
@@ -440,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +459,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -483,13 +471,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>258</v>
+        <v>939</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -497,105 +485,79 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>-2</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1248</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>1225</v>
+        <v>13</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Dia</t>
   </si>
@@ -37,40 +37,73 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
     <t>2025-03-24</t>
   </si>
   <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+    <t>2025-03-25</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
     <t>000098</t>
   </si>
   <si>
-    <t>000276</t>
-  </si>
-  <si>
-    <t>000146</t>
-  </si>
-  <si>
-    <t>000088</t>
+    <t>000350</t>
+  </si>
+  <si>
+    <t>000288</t>
+  </si>
+  <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000486</t>
+  </si>
+  <si>
+    <t>000583</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>DESINFETANTE BRINORT 2L LAVANDA</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>NAFTALINA 40G PCT RUBI</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
 </sst>
 </file>
@@ -428,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,25 +492,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>939</v>
+        <v>-52</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -485,25 +518,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>-2</v>
+        <v>429</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -511,53 +544,157 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>960</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>415</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1386</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>-50</v>
-      </c>
-      <c r="H5" t="b">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>310</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>221</v>
+      </c>
+      <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,33 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+          <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000779</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PEDRA SANITARIA NAFT PLUS FLORAL 25G</t>
+          <t>ESPONJA MULTIUSO JEITOSA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-68</v>
+        <v>2416</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -506,67 +506,67 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>E A H EMPRESA AMAZONENSE DE HOTELARIA LTDA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000440</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LUVA DE LIMPEZA LATEX TAM M AMARELA TOP REFOR NOBRE CA 47259</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>292</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MUSASHI DA AMAZONIA LTDA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>000098</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>429</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>000152</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ESPONJA MULTIUSO JEITOSA</t>
+          <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2419</v>
+        <v>56</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -591,16 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000152</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
+          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -608,41 +608,41 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+          <t>MUSASHI DA AMAZONIA LTDA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>000415</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+          <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -684,33 +684,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MUSASHI DA AMAZONIA LTDA</t>
+          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000415</t>
+          <t>000078</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+          <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000842</t>
+          <t>000243</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+          <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>426</v>
+        <v>661</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000078</t>
+          <t>000071</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
+          <t>SACO DE LIXO 200L PRETO COMUM - PCT C/100 UND</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+          <t>MUSASHI DA AMAZONIA LTDA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000071</t>
+          <t>000842</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 200L PRETO COMUM - PCT C/100 UND</t>
+          <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -812,33 +812,33 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MUSASHI DA AMAZONIA LTDA</t>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000243</t>
+          <t>000276</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+          <t>INSETICIDA SBP AEROSSOL 380ML</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>681</v>
+        <v>50</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000276</t>
+          <t>000146</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INSETICIDA SBP AEROSSOL 380ML</t>
+          <t>DESINFETANTE BRINORT 2L LAVANDA</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+          <t>ZARAPLAST DA AMAZONIA LTDA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000146</t>
+          <t>000098</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DESINFETANTE BRINORT 2L LAVANDA</t>
+          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -914,33 +914,33 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000088</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>VASSOURA PIACAVA 20 FUROS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>200</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ZARAPLAST DA AMAZONIA LTDA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000098</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>429</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -948,33 +948,33 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000088</t>
+          <t>000288</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VASSOURA PIACAVA 20 FUROS</t>
+          <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-52</v>
+        <v>400</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000350</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>960</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1024,33 +1024,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000032</t>
+          <t>000350</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+          <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1386</v>
+        <v>1017</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1058,25 +1058,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000098</t>
+          <t>000032</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+          <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>429</v>
+        <v>1382</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1101,16 +1101,16 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000486</t>
+          <t>000098</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NAFTALINA 40G PCT RUBI</t>
+          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MANJAR SERVICOS GERAIS SA</t>
+          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000583</t>
+          <t>000486</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LIMPA ALUMINIO BRINORT 500ML</t>
+          <t>NAFTALINA 40G PCT RUBI</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+          <t>MANJAR SERVICOS GERAIS SA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000288</t>
+          <t>000583</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+          <t>LIMPA ALUMINIO BRINORT 500ML</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1186,35 +1186,69 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>10</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>15</v>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>000425</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+          <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>200</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>000122</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>58</v>
+      </c>
+      <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,33 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>000152</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ESPONJA MULTIUSO JEITOSA</t>
+          <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2416</v>
+        <v>45</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -506,67 +506,67 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>E A H EMPRESA AMAZONENSE DE HOTELARIA LTDA</t>
+          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000440</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LUVA DE LIMPEZA LATEX TAM M AMARELA TOP REFOR NOBRE CA 47259</t>
+          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000152</t>
+          <t>000078</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
+          <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -574,41 +574,41 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+          <t>MUSASHI DA AMAZONIA LTDA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>000415</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+          <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -625,24 +625,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000415</t>
+          <t>000842</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+          <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>416</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>000071</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DETERGENTE NEUTRO BRINORT 500ML</t>
+          <t>SACO DE LIXO 200L PRETO COMUM - PCT C/100 UND</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -684,25 +684,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+          <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000078</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
+          <t>DETERGENTE NEUTRO BRINORT 500ML</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -744,33 +744,33 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000071</t>
+          <t>000276</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 200L PRETO COMUM - PCT C/100 UND</t>
+          <t>INSETICIDA SBP AEROSSOL 380ML</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -778,33 +778,33 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MUSASHI DA AMAZONIA LTDA</t>
+          <t>ZARAPLAST DA AMAZONIA LTDA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000842</t>
+          <t>000098</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -829,16 +829,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000276</t>
+          <t>000146</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>INSETICIDA SBP AEROSSOL 380ML</t>
+          <t>DESINFETANTE BRINORT 2L LAVANDA</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -846,15 +846,15 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000146</t>
+          <t>000088</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DESINFETANTE BRINORT 2L LAVANDA</t>
+          <t>VASSOURA PIACAVA 20 FUROS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -880,33 +880,33 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ZARAPLAST DA AMAZONIA LTDA</t>
+          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000098</t>
+          <t>000288</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+          <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -914,41 +914,41 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000088</t>
+          <t>000350</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VASSOURA PIACAVA 20 FUROS</t>
+          <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -956,25 +956,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+          <t>MANJAR SERVICOS GERAIS SA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000288</t>
+          <t>000583</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+          <t>LIMPA ALUMINIO BRINORT 500ML</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>400</v>
+        <v>209</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -990,25 +990,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>000032</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+          <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1344</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1033,24 +1033,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000350</t>
+          <t>000098</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1017</v>
+        <v>287</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1058,25 +1058,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000032</t>
+          <t>000486</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+          <t>NAFTALINA 40G PCT RUBI</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1382</v>
+        <v>304</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1092,25 +1092,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+          <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000098</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+          <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1118,33 +1118,33 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000486</t>
+          <t>000425</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NAFTALINA 40G PCT RUBI</t>
+          <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1152,103 +1152,35 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MANJAR SERVICOS GERAIS SA</t>
+          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000583</t>
+          <t>000122</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LIMPA ALUMINIO BRINORT 500ML</t>
+          <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>000425</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>200</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>000122</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>58</v>
-      </c>
-      <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-17</t>
-  </si>
-  <si>
     <t>2025-03-19</t>
   </si>
   <si>
@@ -55,54 +52,27 @@
     <t>2025-03-28</t>
   </si>
   <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
     <t>ZARAPLAST DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
-    <t>000078</t>
-  </si>
-  <si>
-    <t>000415</t>
-  </si>
-  <si>
-    <t>000842</t>
-  </si>
-  <si>
-    <t>000071</t>
-  </si>
-  <si>
-    <t>000717</t>
-  </si>
-  <si>
-    <t>000243</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
@@ -115,24 +85,24 @@
     <t>000088</t>
   </si>
   <si>
+    <t>000350</t>
+  </si>
+  <si>
     <t>000288</t>
   </si>
   <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000486</t>
+  </si>
+  <si>
     <t>000583</t>
   </si>
   <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000486</t>
-  </si>
-  <si>
-    <t>000350</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
     <t>000425</t>
   </si>
   <si>
@@ -142,24 +112,6 @@
     <t>000494</t>
   </si>
   <si>
-    <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
@@ -172,22 +124,22 @@
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
     <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>NAFTALINA 40G PCT RUBI</t>
+  </si>
+  <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>NAFTALINA 40G PCT RUBI</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
   </si>
   <si>
     <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
@@ -554,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,19 +543,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2">
-        <v>68</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -611,51 +563,51 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -663,25 +615,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -689,25 +641,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>432</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -715,51 +667,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>659</v>
+        <v>979</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -767,25 +719,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -793,25 +745,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>1324</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -819,25 +771,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>-4</v>
+        <v>298</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -845,25 +797,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>399</v>
+        <v>185</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -871,25 +823,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -897,25 +849,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14">
-        <v>253</v>
+        <v>-3</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -923,183 +875,27 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
       <c r="C15">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>1331</v>
+        <v>438</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>304</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17">
-        <v>1005</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18">
-        <v>57</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>200</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <v>36</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>438</v>
-      </c>
-      <c r="H21" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
     <t>2025-03-24</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t>2025-04-01</t>
   </si>
   <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+    <t>2025-04-02</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
@@ -73,6 +70,9 @@
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
@@ -82,33 +82,33 @@
     <t>AMAZONIA FORMULA LTDA</t>
   </si>
   <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
     <t>000098</t>
   </si>
   <si>
-    <t>000276</t>
-  </si>
-  <si>
-    <t>000146</t>
-  </si>
-  <si>
-    <t>000088</t>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000486</t>
+  </si>
+  <si>
+    <t>000288</t>
+  </si>
+  <si>
+    <t>000924</t>
   </si>
   <si>
     <t>000350</t>
   </si>
   <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000486</t>
-  </si>
-  <si>
     <t>000583</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
     <t>000122</t>
   </si>
   <si>
+    <t>000091</t>
+  </si>
+  <si>
     <t>000494</t>
   </si>
   <si>
@@ -127,33 +130,45 @@
     <t>000799</t>
   </si>
   <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>010041</t>
+  </si>
+  <si>
+    <t>000054</t>
+  </si>
+  <si>
+    <t>000434</t>
+  </si>
+  <si>
+    <t>000349</t>
+  </si>
+  <si>
+    <t>000057</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>DESINFETANTE BRINORT 2L LAVANDA</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>NAFTALINA 40G PCT RUBI</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>NAFTALINA 40G PCT RUBI</t>
-  </si>
-  <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
     <t>FIBRA DE LIMPEZA PESADA 98X229MM SLIM NOBRE</t>
   </si>
   <si>
@@ -170,6 +188,24 @@
   </si>
   <si>
     <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>PAPEL A4 REPORT RESMA C 500FLS</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
   </si>
 </sst>
 </file>
@@ -527,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,25 +594,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>2180</v>
+        <v>197</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -584,25 +620,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>2019</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -610,25 +646,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1221</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -636,25 +672,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -662,25 +698,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>2180</v>
+        <v>671</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -688,77 +724,77 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>962</v>
+        <v>57</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>697</v>
+        <v>914</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -772,19 +808,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>1263</v>
+        <v>-1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -801,16 +837,16 @@
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -818,25 +854,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -844,131 +880,235 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G15">
-        <v>428</v>
+        <v>-9</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>46</v>
+        <v>1774</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>-297</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>-36</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17">
-        <v>-9</v>
-      </c>
-      <c r="H17" t="b">
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>850</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <v>-121</v>
+      </c>
+      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Dia</t>
   </si>
@@ -55,18 +55,21 @@
     <t>2025-04-02</t>
   </si>
   <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
@@ -88,24 +91,27 @@
     <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
   </si>
   <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
     <t>000088</t>
   </si>
   <si>
     <t>000098</t>
   </si>
   <si>
+    <t>000486</t>
+  </si>
+  <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000288</t>
+  </si>
+  <si>
     <t>000032</t>
   </si>
   <si>
-    <t>000486</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
     <t>000350</t>
   </si>
   <si>
@@ -148,24 +154,27 @@
     <t>000057</t>
   </si>
   <si>
+    <t>000782</t>
+  </si>
+  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
+    <t>NAFTALINA 40G PCT RUBI</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>NAFTALINA 40G PCT RUBI</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
   </si>
   <si>
     <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,16 +615,16 @@
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -629,16 +641,16 @@
         <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>2019</v>
+        <v>1865</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -646,25 +658,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>1221</v>
+        <v>298</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -672,25 +684,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -707,16 +719,16 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -724,25 +736,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>57</v>
+        <v>1148</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -759,16 +771,16 @@
         <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>914</v>
+        <v>856</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -776,7 +788,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -785,16 +797,16 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -811,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -837,13 +849,13 @@
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>363</v>
@@ -863,16 +875,16 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -880,7 +892,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -889,16 +901,16 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G13">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -915,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -932,7 +944,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -941,16 +953,16 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>-9</v>
+        <v>361</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -967,16 +979,16 @@
         <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>1774</v>
+        <v>1637</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -993,16 +1005,16 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>-297</v>
+        <v>46</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1019,16 +1031,16 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1045,13 +1057,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <v>35</v>
@@ -1071,16 +1083,16 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G20">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1097,18 +1109,44 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G21">
-        <v>-121</v>
+        <v>-123</v>
       </c>
       <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22">
+        <v>72</v>
+      </c>
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
     <t>2025-03-25</t>
   </si>
   <si>
@@ -58,21 +55,21 @@
     <t>2025-04-03</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>000088</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
   </si>
   <si>
     <t>000782</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
@@ -575,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,25 +597,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>192</v>
+        <v>1800</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -632,25 +623,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>1865</v>
+        <v>298</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -658,25 +649,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -684,25 +675,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>639</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -710,25 +701,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>646</v>
+        <v>1081</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -736,77 +727,77 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>1148</v>
+        <v>846</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>856</v>
+        <v>61</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>99</v>
+        <v>-4</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -814,25 +805,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>-4</v>
+        <v>336</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -840,25 +831,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -866,51 +857,51 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -918,51 +909,51 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>361</v>
+        <v>1636</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -970,25 +961,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>1637</v>
+        <v>41</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -996,25 +987,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1022,51 +1013,51 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
       <c r="C19">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>832</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1074,28 +1065,28 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20">
-        <v>876</v>
+        <v>75</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1106,47 +1097,21 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21">
-        <v>-123</v>
+        <v>17</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>120</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22">
-        <v>72</v>
-      </c>
-      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
     <t>2025-03-26</t>
   </si>
   <si>
@@ -55,24 +52,12 @@
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
@@ -82,34 +67,16 @@
     <t>AMAZONIA FORMULA LTDA</t>
   </si>
   <si>
+    <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
+  </si>
+  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
-  </si>
-  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>000098</t>
-  </si>
-  <si>
-    <t>000486</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000350</t>
-  </si>
-  <si>
-    <t>000583</t>
+    <t>000091</t>
   </si>
   <si>
     <t>000425</t>
@@ -118,9 +85,6 @@
     <t>000122</t>
   </si>
   <si>
-    <t>000091</t>
-  </si>
-  <si>
     <t>000494</t>
   </si>
   <si>
@@ -130,15 +94,15 @@
     <t>000799</t>
   </si>
   <si>
+    <t>000054</t>
+  </si>
+  <si>
     <t>000041</t>
   </si>
   <si>
     <t>010041</t>
   </si>
   <si>
-    <t>000054</t>
-  </si>
-  <si>
     <t>000434</t>
   </si>
   <si>
@@ -148,28 +112,13 @@
     <t>000057</t>
   </si>
   <si>
+    <t>010180</t>
+  </si>
+  <si>
     <t>000782</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>NAFTALINA 40G PCT RUBI</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
     <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
@@ -178,9 +127,6 @@
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>FIBRA DE LIMPEZA PESADA 98X229MM SLIM NOBRE</t>
   </si>
   <si>
@@ -190,15 +136,15 @@
     <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND</t>
   </si>
   <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
     <t>PAPEL A4 REPORT RESMA C 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
     <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
   </si>
   <si>
@@ -206,6 +152,9 @@
   </si>
   <si>
     <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR METAL 25FLS 11,5 CM JOCAR OFFICE</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
@@ -566,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,25 +546,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -623,25 +572,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -655,19 +604,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -675,103 +624,103 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>639</v>
+        <v>331</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>1081</v>
+        <v>40</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>846</v>
+        <v>352</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -779,25 +728,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>-4</v>
+        <v>1632</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -805,25 +754,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G10">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -831,51 +780,51 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>350</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G12">
-        <v>331</v>
+        <v>820</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -883,51 +832,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -935,183 +884,27 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G15">
-        <v>1636</v>
+        <v>10</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>41</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>206</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18">
-        <v>35</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19">
-        <v>832</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20">
-        <v>75</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
     <t>2025-03-28</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
@@ -76,15 +67,6 @@
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>000091</t>
-  </si>
-  <si>
-    <t>000425</t>
-  </si>
-  <si>
-    <t>000122</t>
-  </si>
-  <si>
     <t>000494</t>
   </si>
   <si>
@@ -116,15 +98,6 @@
   </si>
   <si>
     <t>000782</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA PESADA 98X229MM SLIM NOBRE</t>
@@ -515,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,54 +519,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>331</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -601,22 +574,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -624,77 +597,77 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>1632</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>352</v>
+        <v>21</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -702,77 +675,77 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>1632</v>
+        <v>805</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -780,28 +753,28 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -812,99 +785,21 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>820</v>
+        <v>10</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>75</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -537,7 +537,7 @@
         <v>28</v>
       </c>
       <c r="G2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>29</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>31</v>
       </c>
       <c r="G5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>32</v>
       </c>
       <c r="G6">
-        <v>1632</v>
+        <v>1556</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>33</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>35</v>
       </c>
       <c r="G9">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="G10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>403</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
     <t>2025-04-01</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+    <t>2025-04-10</t>
   </si>
   <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
@@ -67,7 +64,7 @@
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>000494</t>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
     <t>000258</t>
@@ -100,7 +97,10 @@
     <t>000782</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA PESADA 98X229MM SLIM NOBRE</t>
+    <t>000187</t>
+  </si>
+  <si>
+    <t>001261</t>
   </si>
   <si>
     <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +525,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -534,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -545,13 +551,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -560,24 +566,24 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -586,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -597,13 +603,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -612,10 +618,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>1556</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -623,25 +629,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>1556</v>
+        <v>7</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -649,51 +655,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>789</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -701,51 +707,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>789</v>
+        <v>66</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -753,25 +759,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -779,13 +785,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -794,12 +800,38 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>403</v>
+        <v>-204</v>
       </c>
       <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Dia</t>
   </si>
@@ -67,6 +67,12 @@
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
+    <t>LABORATORIO SANTOS E VIDAL LTDA</t>
+  </si>
+  <si>
+    <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
+  </si>
+  <si>
     <t>000258</t>
   </si>
   <si>
@@ -100,6 +106,18 @@
     <t>000187</t>
   </si>
   <si>
+    <t>000787</t>
+  </si>
+  <si>
+    <t>000188</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>010189</t>
+  </si>
+  <si>
     <t>001261</t>
   </si>
   <si>
@@ -134,6 +152,18 @@
   </si>
   <si>
     <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>PILHA ALCALINA AAA PANASONIC</t>
   </si>
   <si>
     <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
@@ -494,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +555,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -537,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>36</v>
@@ -551,7 +581,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -563,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>332</v>
@@ -589,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>200</v>
@@ -615,10 +645,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1556</v>
@@ -641,10 +671,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -655,7 +685,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -667,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -681,7 +711,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -693,10 +723,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>789</v>
@@ -707,7 +737,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -719,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>66</v>
@@ -733,7 +763,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -745,10 +775,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -759,7 +789,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -771,10 +801,10 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>403</v>
@@ -791,16 +821,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>-204</v>
@@ -811,27 +841,131 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>-88</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>623</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>112</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="H13" t="b">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Dia</t>
   </si>
@@ -49,12 +49,15 @@
     <t>2025-04-10</t>
   </si>
   <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>AMAZONIA FORMULA LTDA</t>
+  </si>
+  <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
-    <t>AMAZONIA FORMULA LTDA</t>
-  </si>
-  <si>
     <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
   </si>
   <si>
@@ -73,10 +76,16 @@
     <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
     <t>000258</t>
   </si>
   <si>
-    <t>000799</t>
+    <t>000434</t>
   </si>
   <si>
     <t>000054</t>
@@ -88,43 +97,46 @@
     <t>010041</t>
   </si>
   <si>
-    <t>000434</t>
+    <t>010180</t>
+  </si>
+  <si>
+    <t>000057</t>
   </si>
   <si>
     <t>000349</t>
   </si>
   <si>
-    <t>000057</t>
-  </si>
-  <si>
-    <t>010180</t>
-  </si>
-  <si>
     <t>000782</t>
   </si>
   <si>
+    <t>001261</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>000188</t>
+  </si>
+  <si>
+    <t>000787</t>
+  </si>
+  <si>
     <t>000187</t>
   </si>
   <si>
-    <t>000787</t>
-  </si>
-  <si>
-    <t>000188</t>
-  </si>
-  <si>
-    <t>000897</t>
-  </si>
-  <si>
     <t>010189</t>
   </si>
   <si>
-    <t>001261</t>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND</t>
   </si>
   <si>
     <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND</t>
+    <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
@@ -136,37 +148,37 @@
     <t>PAPEL A4 REPORT RESMA C 500FLS</t>
   </si>
   <si>
-    <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
+    <t>GRAMPEADOR METAL 25FLS 11,5 CM JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>GRAMPEADOR METAL 25FLS 11,5 CM JOCAR OFFICE</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
   </si>
   <si>
+    <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
     <t>PILHA ALCALINA AAA PANASONIC</t>
   </si>
   <si>
-    <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,80 +567,80 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -639,19 +651,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>1556</v>
+        <v>182</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -665,19 +677,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1556</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -685,59 +697,59 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>789</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -746,16 +758,16 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -763,33 +775,33 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10">
+        <v>712</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -798,16 +810,16 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -815,25 +827,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>-204</v>
+        <v>95</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -841,25 +853,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>-88</v>
+        <v>2</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -867,7 +879,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -876,16 +888,16 @@
         <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>623</v>
+        <v>543</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -893,25 +905,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>400</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -919,25 +931,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16">
-        <v>112</v>
+        <v>-81</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -951,21 +963,47 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>-16</v>
+      </c>
+      <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
     <t>2025-04-02</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>2025-04-14</t>
   </si>
   <si>
-    <t>AMAZONIA FORMULA LTDA</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
     <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
   </si>
   <si>
@@ -79,103 +70,91 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>000799</t>
-  </si>
-  <si>
-    <t>000258</t>
+    <t>000054</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>010041</t>
   </si>
   <si>
     <t>000434</t>
   </si>
   <si>
-    <t>000054</t>
-  </si>
-  <si>
-    <t>000041</t>
-  </si>
-  <si>
-    <t>010041</t>
+    <t>000349</t>
+  </si>
+  <si>
+    <t>000057</t>
   </si>
   <si>
     <t>010180</t>
   </si>
   <si>
-    <t>000057</t>
-  </si>
-  <si>
-    <t>000349</t>
-  </si>
-  <si>
     <t>000782</t>
   </si>
   <si>
+    <t>000187</t>
+  </si>
+  <si>
+    <t>000787</t>
+  </si>
+  <si>
+    <t>000188</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>010189</t>
+  </si>
+  <si>
     <t>001261</t>
   </si>
   <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>000188</t>
-  </si>
-  <si>
-    <t>000787</t>
-  </si>
-  <si>
-    <t>000187</t>
-  </si>
-  <si>
-    <t>010189</t>
-  </si>
-  <si>
     <t>000103</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>PAPEL A4 REPORT RESMA C 500FLS</t>
   </si>
   <si>
     <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>PAPEL A4 REPORT RESMA C 500FLS</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
     <t>GRAMPEADOR METAL 25FLS 11,5 CM JOCAR OFFICE</t>
   </si>
   <si>
-    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
   </si>
   <si>
+    <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>PILHA ALCALINA AAA PANASONIC</t>
+  </si>
+  <si>
     <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>PILHA ALCALINA AAA PANASONIC</t>
   </si>
   <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
@@ -536,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,25 +546,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -593,129 +572,129 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>1556</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>182</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>1556</v>
+        <v>700</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>-6</v>
+        <v>51</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -723,22 +702,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -755,19 +734,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -775,51 +754,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>712</v>
+        <v>119</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -827,25 +806,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>95</v>
+        <v>543</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -856,19 +835,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -879,25 +858,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>543</v>
+        <v>101</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -905,25 +884,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>-11</v>
+        <v>95</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -931,79 +910,27 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G16">
-        <v>-81</v>
+        <v>134</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>101</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>-16</v>
-      </c>
-      <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
     <t>2025-04-03</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>2025-04-14</t>
   </si>
   <si>
-    <t>REVEMAR COMERCIO DE MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
@@ -70,27 +61,6 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>000054</t>
-  </si>
-  <si>
-    <t>000041</t>
-  </si>
-  <si>
-    <t>010041</t>
-  </si>
-  <si>
-    <t>000434</t>
-  </si>
-  <si>
-    <t>000349</t>
-  </si>
-  <si>
-    <t>000057</t>
-  </si>
-  <si>
-    <t>010180</t>
-  </si>
-  <si>
     <t>000782</t>
   </si>
   <si>
@@ -113,27 +83,6 @@
   </si>
   <si>
     <t>000103</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>PAPEL A4 REPORT RESMA C 500FLS</t>
-  </si>
-  <si>
-    <t>FRASCO COM VALVULA PUMP 450ML (p/alcool/sabonete) - NOBRE</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 8x100M NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>GRAMPEADOR METAL 25FLS 11,5 CM JOCAR OFFICE</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
@@ -515,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,25 +495,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -572,25 +521,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>1556</v>
+        <v>29</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -598,25 +547,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -624,77 +573,77 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>493</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>700</v>
+        <v>207</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -702,25 +651,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -728,209 +677,27 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10">
-        <v>119</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>400</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>400</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>543</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>101</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <v>95</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16">
-        <v>134</v>
-      </c>
-      <c r="H16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Dia</t>
   </si>
@@ -37,18 +37,12 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
     <t>2025-04-10</t>
   </si>
   <si>
     <t>2025-04-14</t>
   </si>
   <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>000782</t>
-  </si>
-  <si>
     <t>000187</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
   </si>
   <si>
     <t>000103</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
   </si>
   <si>
     <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
@@ -464,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,25 +483,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -521,25 +509,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>-20</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -547,25 +535,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>-20</v>
+        <v>493</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -573,25 +561,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>493</v>
+        <v>207</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -599,25 +587,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -628,22 +616,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -651,53 +639,27 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>134</v>
-      </c>
-      <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Dia</t>
   </si>
@@ -43,6 +43,9 @@
     <t>2025-04-14</t>
   </si>
   <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
+    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>000187</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>000103</t>
   </si>
   <si>
+    <t>000032</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,13 +504,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -509,7 +521,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -518,13 +530,13 @@
         <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>-20</v>
@@ -535,7 +547,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -544,16 +556,16 @@
         <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -561,7 +573,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -570,16 +582,16 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -587,7 +599,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -596,13 +608,13 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>86</v>
@@ -613,7 +625,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -622,13 +634,13 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>95</v>
@@ -648,18 +660,44 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>826</v>
+      </c>
+      <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Dia</t>
   </si>
@@ -46,6 +46,9 @@
     <t>2025-04-17</t>
   </si>
   <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>METALURGICA SATO DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
     <t>000187</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>000032</t>
   </si>
   <si>
+    <t>000015</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M AZUL TALGE</t>
   </si>
 </sst>
 </file>
@@ -464,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +516,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -530,16 +542,16 @@
         <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -556,13 +568,13 @@
         <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>483</v>
@@ -582,13 +594,13 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -599,7 +611,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -608,13 +620,13 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>86</v>
@@ -625,7 +637,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -634,13 +646,13 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>95</v>
@@ -660,16 +672,16 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -686,18 +698,44 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
     <t>2025-04-14</t>
   </si>
   <si>
@@ -49,13 +46,10 @@
     <t>2025-04-22</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>LABORATORIO SANTOS E VIDAL LTDA</t>
-  </si>
-  <si>
-    <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
@@ -67,22 +61,16 @@
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>000187</t>
-  </si>
-  <si>
-    <t>000787</t>
-  </si>
-  <si>
-    <t>000188</t>
-  </si>
-  <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>010189</t>
-  </si>
-  <si>
-    <t>001261</t>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>000103</t>
@@ -94,22 +82,16 @@
     <t>000015</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L COMUM PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L COMUM PACOTINHO C/10 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>PILHA ALCALINA AAA PANASONIC</t>
-  </si>
-  <si>
-    <t>SABAO LIQUIDO LAVA ROUPA BRINORT CONC AZUL 2L</t>
+    <t>000184</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
+    <t>000842</t>
   </si>
   <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
@@ -119,6 +101,18 @@
   </si>
   <si>
     <t>PANO MULTIUSO ROLO 28X300 M AZUL TALGE</t>
+  </si>
+  <si>
+    <t>SACO PLAST 1 KG 16X30 ALTA DENSIDADE C/100 UND</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
   </si>
 </sst>
 </file>
@@ -476,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,25 +501,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -536,22 +530,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3">
-        <v>-40</v>
+        <v>740</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -559,25 +553,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -585,25 +579,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -611,25 +605,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>1184</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -637,25 +631,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7">
-        <v>95</v>
+        <v>-16</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -663,79 +657,27 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
       <c r="G8">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>803</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -597,7 +597,7 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>-290</v>
+        <v>110</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="G7">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
     <t>2025-04-17</t>
   </si>
   <si>
@@ -52,7 +49,7 @@
     <t>2025-04-24</t>
   </si>
   <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+    <t>2025-04-28</t>
   </si>
   <si>
     <t>METALURGICA SATO DA AMAZONIA LTDA</t>
@@ -61,9 +58,6 @@
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -73,7 +67,10 @@
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>000103</t>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>LUCAS CLIENTE NOVO</t>
   </si>
   <si>
     <t>000032</t>
@@ -82,9 +79,6 @@
     <t>000015</t>
   </si>
   <si>
-    <t>000184</t>
-  </si>
-  <si>
     <t>000029</t>
   </si>
   <si>
@@ -94,7 +88,19 @@
     <t>000842</t>
   </si>
   <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000347</t>
+  </si>
+  <si>
+    <t>000349</t>
+  </si>
+  <si>
+    <t>000158</t>
+  </si>
+  <si>
+    <t>000779</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
@@ -103,9 +109,6 @@
     <t>PANO MULTIUSO ROLO 28X300 M AZUL TALGE</t>
   </si>
   <si>
-    <t>SACO PLAST 1 KG 16X30 ALTA DENSIDADE C/100 UND</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
@@ -113,6 +116,21 @@
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>INSETICIDA BUZZOFF AEROSSOL 300ML</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>AZULIM LIMPA CERAMICAS E AZULEJOS LAVANDA 5L 1:15 START</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA NAFT PLUS FLORAL 25G</t>
   </si>
 </sst>
 </file>
@@ -470,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,13 +519,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -516,10 +534,10 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>740</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -527,13 +545,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -542,10 +560,10 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -553,13 +571,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -568,10 +586,10 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1121</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -579,13 +597,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -594,10 +612,10 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -605,13 +623,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -620,10 +638,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>1171</v>
+        <v>21</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -631,13 +649,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -646,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -663,21 +681,99 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>547</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>-151</v>
+      </c>
+      <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -537,7 +537,7 @@
         <v>29</v>
       </c>
       <c r="G2">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>31</v>
       </c>
       <c r="G4">
-        <v>1121</v>
+        <v>8500</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>33</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>-108</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>34</v>
       </c>
       <c r="G7">
-        <v>683</v>
+        <v>334</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="G9">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>37</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>-151</v>
+        <v>150</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Dia</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2025-04-28</t>
   </si>
   <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
     <t>METALURGICA SATO DA AMAZONIA LTDA</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>LUCAS CLIENTE NOVO</t>
   </si>
   <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
     <t>000032</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>000779</t>
   </si>
   <si>
+    <t>000041</t>
+  </si>
+  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>PEDRA SANITARIA NAFT PLUS FLORAL 25G</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +531,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -528,16 +540,16 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -545,7 +557,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -554,13 +566,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -571,7 +583,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -580,16 +592,16 @@
         <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>8500</v>
+        <v>8432</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -606,16 +618,16 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -623,7 +635,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -632,13 +644,13 @@
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>-108</v>
@@ -658,16 +670,16 @@
         <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>334</v>
+        <v>215</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -684,13 +696,13 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -701,7 +713,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -710,16 +722,16 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -727,7 +739,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -736,13 +748,13 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -753,7 +765,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -762,18 +774,44 @@
         <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>150</v>
       </c>
       <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>1109</v>
+      </c>
+      <c r="H12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
     <t>2025-04-22</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>2025-04-30</t>
   </si>
   <si>
-    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>000032</t>
-  </si>
-  <si>
     <t>000015</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
   </si>
   <si>
     <t>000041</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>PANO MULTIUSO ROLO 28X300 M AZUL TALGE</t>
@@ -500,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +519,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -563,19 +551,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8432</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -583,25 +571,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>8432</v>
+        <v>196</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -609,25 +597,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>196</v>
+        <v>-108</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -635,25 +623,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>-108</v>
+        <v>215</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -661,51 +649,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>489</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -716,22 +704,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -739,33 +727,33 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -777,41 +765,15 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>1109</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>250</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
-        <v>1109</v>
-      </c>
-      <c r="H12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -563,7 +563,7 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>8432</v>
+        <v>8378</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>31</v>
       </c>
       <c r="G4">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>-108</v>
+        <v>692</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>33</v>
       </c>
       <c r="G6">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>37</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
     <t>2025-04-23</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>2025-04-30</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>000015</t>
-  </si>
-  <si>
     <t>000029</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
   </si>
   <si>
     <t>000041</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M AZUL TALGE</t>
   </si>
   <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
@@ -488,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +513,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8168</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -545,25 +533,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>8378</v>
+        <v>185</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -571,25 +559,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>190</v>
+        <v>636</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -597,25 +585,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>692</v>
+        <v>-5</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -623,51 +611,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>356</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -675,25 +663,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -701,33 +689,33 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -739,41 +727,15 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>120</v>
+        <v>1063</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>250</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11">
-        <v>1099</v>
-      </c>
-      <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
     <t>2025-04-24</t>
   </si>
   <si>
@@ -49,27 +46,27 @@
     <t>2025-04-30</t>
   </si>
   <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>LUCAS CLIENTE NOVO</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>LUCAS CLIENTE NOVO</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>000029</t>
-  </si>
-  <si>
     <t>000088</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>000041</t>
   </si>
   <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
+    <t>000877</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
 </sst>
 </file>
@@ -507,13 +507,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -525,7 +525,7 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>8168</v>
+        <v>174</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -551,7 +551,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>185</v>
+        <v>616</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -577,7 +577,7 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>636</v>
+        <v>-15</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -585,16 +585,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -603,24 +603,24 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="G7">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -663,16 +663,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -681,15 +681,15 @@
         <v>32</v>
       </c>
       <c r="G8">
+        <v>140</v>
+      </c>
+      <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -698,7 +698,7 @@
         <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="G9">
-        <v>184</v>
+        <v>1055</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -733,10 +733,10 @@
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1063</v>
+        <v>185</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
     <t>2025-04-28</t>
   </si>
   <si>
@@ -49,10 +46,7 @@
     <t>2025-05-07</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>2025-05-08</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
@@ -67,10 +61,10 @@
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>000088</t>
-  </si>
-  <si>
-    <t>000842</t>
+    <t>ASSOCIACAO DOS EMPREENDEDORES DO SMVN</t>
+  </si>
+  <si>
+    <t>CONDOMINIO SOBERANE RESIDENCE, CORPORATE E MALL</t>
   </si>
   <si>
     <t>000098</t>
@@ -94,10 +88,13 @@
     <t>000877</t>
   </si>
   <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+    <t>000084</t>
+  </si>
+  <si>
+    <t>000079</t>
+  </si>
+  <si>
+    <t>000890</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
@@ -119,6 +116,15 @@
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -522,10 +528,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>174</v>
+        <v>-15</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -533,77 +539,77 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>616</v>
+        <v>2</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>-15</v>
+        <v>344</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -611,91 +617,91 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -704,10 +710,10 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>33</v>
-      </c>
-      <c r="G9">
-        <v>1055</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -715,28 +721,54 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>185</v>
+        <v>-3</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Dia</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2025-05-08</t>
   </si>
   <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
@@ -67,6 +70,12 @@
     <t>CONDOMINIO SOBERANE RESIDENCE, CORPORATE E MALL</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>A R C DOS SANTOS</t>
+  </si>
+  <si>
     <t>000098</t>
   </si>
   <si>
@@ -97,6 +106,18 @@
     <t>000890</t>
   </si>
   <si>
+    <t>000425</t>
+  </si>
+  <si>
+    <t>001023</t>
+  </si>
+  <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000770</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
@@ -125,6 +146,18 @@
   </si>
   <si>
     <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
   </si>
 </sst>
 </file>
@@ -482,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +555,13 @@
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>-15</v>
@@ -548,13 +581,13 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -565,7 +598,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -574,16 +607,16 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -591,7 +624,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -600,13 +633,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -617,7 +650,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -626,13 +659,13 @@
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>116</v>
@@ -652,16 +685,16 @@
         <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>1055</v>
+        <v>865</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -669,7 +702,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -678,16 +711,16 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -704,16 +737,16 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -721,7 +754,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -730,13 +763,13 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>-3</v>
@@ -747,7 +780,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -756,19 +789,123 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>-10</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
     <t>2025-04-30</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>2025-05-09</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>LUCAS CLIENTE NOVO</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
@@ -76,21 +67,6 @@
     <t>A R C DOS SANTOS</t>
   </si>
   <si>
-    <t>000098</t>
-  </si>
-  <si>
-    <t>000347</t>
-  </si>
-  <si>
-    <t>000349</t>
-  </si>
-  <si>
-    <t>000158</t>
-  </si>
-  <si>
-    <t>000779</t>
-  </si>
-  <si>
     <t>000041</t>
   </si>
   <si>
@@ -116,21 +92,6 @@
   </si>
   <si>
     <t>000770</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>INSETICIDA BUZZOFF AEROSSOL 300ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>AZULIM LIMPA CERAMICAS E AZULEJOS LAVANDA 5L 1:15 START</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA NAFT PLUS FLORAL 25G</t>
   </si>
   <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
@@ -515,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,16 +516,16 @@
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>-15</v>
+        <v>863</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -572,25 +533,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -598,77 +559,77 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -676,25 +637,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>865</v>
+        <v>-3</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -702,25 +663,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>184</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -728,25 +689,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -754,157 +715,27 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>-3</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>-10</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>33</v>
-      </c>
-      <c r="H15" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -577,7 +577,7 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="G9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>34</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
     <t>2025-05-07</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>2025-05-09</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+    <t>2025-05-14</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
@@ -67,7 +64,7 @@
     <t>A R C DOS SANTOS</t>
   </si>
   <si>
-    <t>000041</t>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>000877</t>
@@ -94,7 +91,10 @@
     <t>000770</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>000415</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,13 +513,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -522,24 +528,24 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>863</v>
+        <v>181</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -548,36 +554,36 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>183</v>
+        <v>-15</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -585,13 +591,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -600,10 +606,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -611,13 +617,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -626,10 +632,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>-3</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -637,65 +643,65 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -704,24 +710,24 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -730,12 +736,38 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>163</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -531,7 +531,7 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="G3">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>30</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>33</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Dia</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2025-05-14</t>
   </si>
   <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
     <t>000877</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>000415</t>
   </si>
   <si>
+    <t>000098</t>
+  </si>
+  <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +525,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -522,16 +534,16 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -548,16 +560,16 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>-40</v>
+        <v>48</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -565,7 +577,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -574,16 +586,16 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>-21</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -591,7 +603,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -600,13 +612,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -617,7 +629,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -626,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -643,7 +655,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -652,16 +664,16 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -669,7 +681,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -678,16 +690,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>-4</v>
+        <v>37</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -695,7 +707,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -704,16 +716,16 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -721,7 +733,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -730,13 +742,13 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>62</v>
@@ -747,7 +759,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -756,19 +768,45 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>2368</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>Dia</t>
   </si>
@@ -37,106 +37,292 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
     <t>2025-05-08</t>
   </si>
   <si>
     <t>2025-05-09</t>
   </si>
   <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
     <t>2025-05-14</t>
   </si>
   <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
     <t>2025-05-20</t>
   </si>
   <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>CONDOMINIO SOBERANE RESIDENCE, CORPORATE E MALL</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO DOS EMPREENDEDORES DO SMVN</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>A R C DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
+  </si>
+  <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>ASSOCIACAO DOS EMPREENDEDORES DO SMVN</t>
-  </si>
-  <si>
-    <t>CONDOMINIO SOBERANE RESIDENCE, CORPORATE E MALL</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>A R C DOS SANTOS</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
+  </si>
+  <si>
+    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>NORTH HOTEIS EIRELI</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
+    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>000084</t>
+  </si>
+  <si>
+    <t>000554</t>
+  </si>
+  <si>
+    <t>000274</t>
+  </si>
+  <si>
+    <t>000323</t>
+  </si>
+  <si>
+    <t>000079</t>
+  </si>
+  <si>
+    <t>000082</t>
+  </si>
+  <si>
+    <t>000890</t>
+  </si>
+  <si>
+    <t>001023</t>
+  </si>
+  <si>
+    <t>000159</t>
+  </si>
+  <si>
+    <t>000770</t>
+  </si>
+  <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000121</t>
+  </si>
+  <si>
+    <t>000428</t>
+  </si>
+  <si>
+    <t>000899</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>000379</t>
+  </si>
+  <si>
+    <t>000843</t>
+  </si>
+  <si>
+    <t>000288</t>
+  </si>
+  <si>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>000425</t>
+  </si>
+  <si>
+    <t>000717</t>
+  </si>
+  <si>
+    <t>000258</t>
+  </si>
+  <si>
+    <t>000208</t>
+  </si>
+  <si>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>000842</t>
+  </si>
+  <si>
+    <t>000415</t>
+  </si>
+  <si>
+    <t>010072</t>
+  </si>
+  <si>
+    <t>000328</t>
+  </si>
+  <si>
+    <t>000083</t>
+  </si>
+  <si>
+    <t>010040</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000098</t>
+  </si>
+  <si>
     <t>000877</t>
   </si>
   <si>
-    <t>000084</t>
-  </si>
-  <si>
-    <t>000079</t>
-  </si>
-  <si>
-    <t>000890</t>
-  </si>
-  <si>
-    <t>000425</t>
-  </si>
-  <si>
-    <t>001023</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
-    <t>000770</t>
-  </si>
-  <si>
-    <t>000307</t>
-  </si>
-  <si>
-    <t>000415</t>
-  </si>
-  <si>
-    <t>000098</t>
+    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>PA P/ LIXO SUPER C/CABO ALKLIN</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AMARELO PCT C 2UND NOBRE</t>
+  </si>
+  <si>
+    <t>REFIL MOP UMIDO 340G PONTA DOBRADA NOBRE AZUL</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO 0.06 - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
+  </si>
+  <si>
+    <t>CERA GOLD IMPERMEABILIZANTE INCOLOR AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>ACENDEDOR DE FOGAO</t>
+  </si>
+  <si>
+    <t>PALITO DE DENTE SACHE C/2000 UND</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>PAPEL MANTEIGA 50X70 C/400</t>
+  </si>
+  <si>
+    <t>SACO PLAST B.D. 60x100 N 60 C/25 UND</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>LAPIS PRETO N2 UND LEOELEO</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
-  </si>
-  <si>
-    <t>FILME PVC 30X8X500MT</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
-    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
 </sst>
 </file>
@@ -494,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +711,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -534,42 +720,42 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>48</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -577,77 +763,77 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -655,51 +841,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8">
-        <v>37</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -707,77 +893,77 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -785,28 +971,756 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>37</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>48</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>138</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>822</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>382</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>420</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24">
+        <v>1784</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>53</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>320</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27">
+        <v>48</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28">
+        <v>62</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29">
+        <v>306</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>200</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30">
+        <v>161</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>814</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32">
+        <v>85</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>504</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34">
+        <v>1784</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>400</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35">
+        <v>204</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36">
+        <v>85</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>1239</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38">
+        <v>2323</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>1239</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12">
-        <v>2368</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40">
+        <v>128</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
     <t>2025-05-09</t>
   </si>
   <si>
@@ -64,27 +61,18 @@
     <t>2025-05-21</t>
   </si>
   <si>
-    <t>CONDOMINIO SOBERANE RESIDENCE, CORPORATE E MALL</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO DOS EMPREENDEDORES DO SMVN</t>
+    <t>2025-05-22</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
+    <t>A R C DOS SANTOS</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>A R C DOS SANTOS</t>
-  </si>
-  <si>
     <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
   </si>
   <si>
@@ -106,15 +94,15 @@
     <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
   </si>
   <si>
+    <t>NORTH HOTEIS EIRELI</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
     <t>BEIRA ALTA INDUSTRIAL LTDA</t>
   </si>
   <si>
-    <t>NORTH HOTEIS EIRELI</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
@@ -124,75 +112,57 @@
     <t>000084</t>
   </si>
   <si>
-    <t>000554</t>
-  </si>
-  <si>
-    <t>000274</t>
-  </si>
-  <si>
-    <t>000323</t>
-  </si>
-  <si>
-    <t>000079</t>
-  </si>
-  <si>
-    <t>000082</t>
-  </si>
-  <si>
-    <t>000890</t>
+    <t>000770</t>
+  </si>
+  <si>
+    <t>000159</t>
+  </si>
+  <si>
+    <t>000121</t>
+  </si>
+  <si>
+    <t>000924</t>
+  </si>
+  <si>
+    <t>000899</t>
+  </si>
+  <si>
+    <t>000428</t>
+  </si>
+  <si>
+    <t>000425</t>
+  </si>
+  <si>
+    <t>000041</t>
   </si>
   <si>
     <t>001023</t>
   </si>
   <si>
-    <t>000159</t>
-  </si>
-  <si>
-    <t>000770</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
-    <t>000121</t>
-  </si>
-  <si>
-    <t>000428</t>
-  </si>
-  <si>
-    <t>000899</t>
-  </si>
-  <si>
-    <t>000041</t>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>000843</t>
+  </si>
+  <si>
+    <t>000288</t>
   </si>
   <si>
     <t>000379</t>
   </si>
   <si>
-    <t>000843</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000103</t>
-  </si>
-  <si>
-    <t>000425</t>
-  </si>
-  <si>
     <t>000717</t>
   </si>
   <si>
     <t>000258</t>
   </si>
   <si>
+    <t>000307</t>
+  </si>
+  <si>
     <t>000208</t>
   </si>
   <si>
-    <t>000307</t>
-  </si>
-  <si>
     <t>000842</t>
   </si>
   <si>
@@ -205,96 +175,87 @@
     <t>000328</t>
   </si>
   <si>
+    <t>010040</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
     <t>000083</t>
   </si>
   <si>
-    <t>010040</t>
-  </si>
-  <si>
-    <t>000034</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
     <t>000877</t>
   </si>
   <si>
+    <t>000999</t>
+  </si>
+  <si>
+    <t>000426</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
   </si>
   <si>
-    <t>PA P/ LIXO SUPER C/CABO ALKLIN</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO PCT C 2UND NOBRE</t>
-  </si>
-  <si>
-    <t>REFIL MOP UMIDO 340G PONTA DOBRADA NOBRE AZUL</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO 0.06 - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
+  </si>
+  <si>
+    <t>CERA GOLD IMPERMEABILIZANTE INCOLOR AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
+  </si>
+  <si>
+    <t>PALITO DE DENTE SACHE C/2000 UND</t>
+  </si>
+  <si>
+    <t>ACENDEDOR DE FOGAO</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
-    <t>CERA GOLD IMPERMEABILIZANTE INCOLOR AUDAX 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>ACENDEDOR DE FOGAO</t>
-  </si>
-  <si>
-    <t>PALITO DE DENTE SACHE C/2000 UND</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>SACO PLAST B.D. 60x100 N 60 C/25 UND</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
     <t>PAPEL MANTEIGA 50X70 C/400</t>
   </si>
   <si>
-    <t>SACO PLAST B.D. 60x100 N 60 C/25 UND</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
-  </si>
-  <si>
     <t>DETERGENTE NEUTRO BRINORT 500ML</t>
   </si>
   <si>
     <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
   </si>
   <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
     <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
   </si>
   <si>
@@ -307,22 +268,31 @@
     <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
   </si>
   <si>
+    <t>LAPIS PRETO N2 UND LEOELEO</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>LAPIS PRETO N2 UND LEOELEO</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>ESCOVA DE ACO 3 FILEIRAS</t>
+  </si>
+  <si>
+    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
   </si>
 </sst>
 </file>
@@ -680,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,19 +687,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -737,33 +707,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -772,16 +742,16 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -789,51 +759,51 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -841,25 +811,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -867,25 +837,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -893,25 +863,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>69</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>-5</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -919,51 +889,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>-6</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -971,51 +941,51 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>-5</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1023,25 +993,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G14">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1049,25 +1019,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>138</v>
+        <v>-2</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1075,25 +1045,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1101,51 +1071,51 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>822</v>
+        <v>62</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1153,25 +1123,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>311</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1179,25 +1149,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1205,25 +1175,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
       <c r="C21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G21">
-        <v>382</v>
+        <v>19</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1231,28 +1201,28 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G22">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1260,22 +1230,22 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>803</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1283,25 +1253,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24">
-        <v>1784</v>
+        <v>85</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1309,51 +1279,51 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G25">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G26">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1361,25 +1331,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>1200</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1387,25 +1357,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1413,25 +1383,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>306</v>
+        <v>1784</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1439,51 +1409,51 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30">
-        <v>161</v>
+        <v>2186</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G31">
-        <v>814</v>
+        <v>1200</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1491,51 +1461,51 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G32">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>56</v>
+        <v>-6</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1543,25 +1513,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G34">
-        <v>1784</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1569,158 +1539,28 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>400</v>
-      </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G35">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36">
-        <v>85</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <v>1239</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38">
-        <v>400</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38">
-        <v>2323</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <v>1239</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40">
-        <v>128</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
     <t>2025-05-12</t>
   </si>
   <si>
@@ -64,111 +61,66 @@
     <t>2025-05-22</t>
   </si>
   <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
+  </si>
+  <si>
+    <t>NORTH HOTEIS EIRELI</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>A R C DOS SANTOS</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>DE PASQUAL HOTEIS E TURISMO LTDA.</t>
-  </si>
-  <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
-  </si>
-  <si>
-    <t>NORTH HOTEIS EIRELI</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
+    <t>000258</t>
+  </si>
+  <si>
+    <t>000717</t>
   </si>
   <si>
     <t>000084</t>
   </si>
   <si>
-    <t>000770</t>
-  </si>
-  <si>
-    <t>000159</t>
-  </si>
-  <si>
-    <t>000121</t>
-  </si>
-  <si>
-    <t>000924</t>
-  </si>
-  <si>
-    <t>000899</t>
-  </si>
-  <si>
-    <t>000428</t>
-  </si>
-  <si>
-    <t>000425</t>
-  </si>
-  <si>
-    <t>000041</t>
-  </si>
-  <si>
-    <t>001023</t>
-  </si>
-  <si>
-    <t>000103</t>
-  </si>
-  <si>
-    <t>000843</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000379</t>
-  </si>
-  <si>
-    <t>000717</t>
-  </si>
-  <si>
-    <t>000258</t>
+    <t>000208</t>
   </si>
   <si>
     <t>000307</t>
   </si>
   <si>
-    <t>000208</t>
+    <t>000415</t>
   </si>
   <si>
     <t>000842</t>
   </si>
   <si>
-    <t>000415</t>
-  </si>
-  <si>
     <t>010072</t>
   </si>
   <si>
@@ -178,12 +130,12 @@
     <t>010040</t>
   </si>
   <si>
+    <t>000032</t>
+  </si>
+  <si>
     <t>000034</t>
   </si>
   <si>
-    <t>000032</t>
-  </si>
-  <si>
     <t>000083</t>
   </si>
   <si>
@@ -202,66 +154,27 @@
     <t>000897</t>
   </si>
   <si>
+    <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
   </si>
   <si>
-    <t>DETERGENTE CLORADO AUDAX GOLD 5L</t>
-  </si>
-  <si>
-    <t>CERA GOLD IMPERMEABILIZANTE INCOLOR AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML CX/20</t>
-  </si>
-  <si>
-    <t>PALITO DE DENTE SACHE C/2000 UND</t>
-  </si>
-  <si>
-    <t>ACENDEDOR DE FOGAO</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE EG (EXTRA GRANDE)</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>FILME PVC 30X8X500MT</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>SACO PLAST B.D. 60x100 N 60 C/25 UND</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>PAPEL MANTEIGA 50X70 C/400</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
     <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
   </si>
   <si>
@@ -271,10 +184,10 @@
     <t>LAPIS PRETO N2 UND LEOELEO</t>
   </si>
   <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
     <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
@@ -650,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,103 +594,103 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -785,25 +698,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -811,51 +724,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>161</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>-4</v>
+        <v>306</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -863,25 +776,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>-5</v>
+        <v>803</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -889,25 +802,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>668</v>
+        <v>85</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -918,48 +831,48 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>-6</v>
+        <v>204</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>504</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1784</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -967,25 +880,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>-5</v>
+        <v>1200</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -993,25 +906,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1019,25 +932,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>-2</v>
+        <v>56</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1045,25 +958,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>1784</v>
+        <v>2186</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1071,25 +984,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1097,25 +1010,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>62</v>
+        <v>1200</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1123,25 +1036,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>311</v>
+        <v>-6</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1149,25 +1062,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G20">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1175,391 +1088,27 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22">
-        <v>161</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23">
-        <v>803</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24">
-        <v>85</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>400</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25">
-        <v>204</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26">
-        <v>85</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27">
-        <v>1200</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28">
-        <v>56</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29">
-        <v>1784</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>400</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30">
-        <v>2186</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31">
-        <v>1200</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32">
-        <v>128</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33">
-        <v>-6</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35">
-        <v>34</v>
-      </c>
-      <c r="H35" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
     <t>2025-05-14</t>
   </si>
   <si>
@@ -61,151 +58,145 @@
     <t>2025-05-22</t>
   </si>
   <si>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
+  </si>
+  <si>
+    <t>NORTH HOTEIS EIRELI</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
-  </si>
-  <si>
-    <t>NORTH HOTEIS EIRELI</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>000258</t>
+    <t>000084</t>
+  </si>
+  <si>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>000415</t>
+  </si>
+  <si>
+    <t>000208</t>
+  </si>
+  <si>
+    <t>000842</t>
+  </si>
+  <si>
+    <t>010072</t>
+  </si>
+  <si>
+    <t>000328</t>
+  </si>
+  <si>
+    <t>010040</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000083</t>
   </si>
   <si>
     <t>000717</t>
   </si>
   <si>
-    <t>000084</t>
-  </si>
-  <si>
-    <t>000208</t>
-  </si>
-  <si>
-    <t>000307</t>
-  </si>
-  <si>
-    <t>000415</t>
-  </si>
-  <si>
-    <t>000842</t>
-  </si>
-  <si>
-    <t>010072</t>
-  </si>
-  <si>
-    <t>000328</t>
-  </si>
-  <si>
-    <t>010040</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000034</t>
-  </si>
-  <si>
-    <t>000083</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
     <t>000877</t>
   </si>
   <si>
+    <t>000897</t>
+  </si>
+  <si>
     <t>000999</t>
   </si>
   <si>
     <t>000426</t>
   </si>
   <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL HIGIENICO ROLAO 300-500M BRANCO NOBRE STREET</t>
+    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+  </si>
+  <si>
+    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
+  </si>
+  <si>
+    <t>LAPIS PRETO N2 UND LEOELEO</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>DETERGENTE NEUTRO BRINORT 500ML</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
-  </si>
-  <si>
-    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
-  </si>
-  <si>
-    <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
-  </si>
-  <si>
-    <t>LAPIS PRETO N2 UND LEOELEO</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
     <t>ESCOVA DE ACO 3 FILEIRAS</t>
   </si>
   <si>
     <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
   </si>
 </sst>
 </file>
@@ -563,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,51 +585,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>1784</v>
+        <v>62</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -646,48 +637,48 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>311</v>
@@ -698,25 +689,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -724,51 +715,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>161</v>
+        <v>803</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -776,25 +767,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>803</v>
+        <v>204</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -802,25 +793,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>1200</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -828,25 +819,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -854,25 +845,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>504</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>1784</v>
+        <v>56</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -880,25 +871,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>1200</v>
+        <v>1784</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -906,13 +897,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -921,10 +912,10 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>85</v>
+        <v>2186</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -932,25 +923,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>56</v>
+        <v>1200</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -958,77 +949,77 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16">
-        <v>2186</v>
+        <v>128</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G18">
-        <v>1200</v>
+        <v>-6</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1039,76 +1030,24 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21">
-        <v>34</v>
-      </c>
-      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
     <t>2025-05-15</t>
   </si>
   <si>
@@ -58,36 +55,36 @@
     <t>2025-05-22</t>
   </si>
   <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>NORTH HOTEIS EIRELI</t>
+  </si>
+  <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
-  </si>
-  <si>
-    <t>NORTH HOTEIS EIRELI</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
-  </si>
-  <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
     <t>METALURGICA SATO DA AMAZONIA LTDA</t>
   </si>
   <si>
@@ -97,19 +94,7 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>000084</t>
-  </si>
-  <si>
-    <t>000307</t>
-  </si>
-  <si>
-    <t>000415</t>
-  </si>
-  <si>
-    <t>000208</t>
-  </si>
-  <si>
-    <t>000842</t>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
     <t>010072</t>
@@ -118,21 +103,24 @@
     <t>000328</t>
   </si>
   <si>
+    <t>000091</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
     <t>010040</t>
   </si>
   <si>
-    <t>000032</t>
-  </si>
-  <si>
     <t>000034</t>
   </si>
   <si>
+    <t>000717</t>
+  </si>
+  <si>
     <t>000083</t>
   </si>
   <si>
-    <t>000717</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
@@ -148,19 +136,19 @@
     <t>000426</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L PRETO 0.10 REFORCADO - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND</t>
+    <t>000288</t>
+  </si>
+  <si>
+    <t>001023</t>
+  </si>
+  <si>
+    <t>000152</t>
+  </si>
+  <si>
+    <t>000855</t>
+  </si>
+  <si>
+    <t>000103</t>
   </si>
   <si>
     <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
@@ -169,21 +157,24 @@
     <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
   </si>
   <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
     <t>LAPIS PRETO N2 UND LEOELEO</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
     <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
   </si>
   <si>
+    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
@@ -197,6 +188,21 @@
   </si>
   <si>
     <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
+  </si>
+  <si>
+    <t>SACO PLAST BD 50X80 N30 PC/25</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,25 +591,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>765</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -611,25 +617,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -637,51 +643,51 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>311</v>
+        <v>1062</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -689,25 +695,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>306</v>
+        <v>4</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -715,13 +721,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -730,10 +736,10 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>803</v>
+        <v>83</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -741,25 +747,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>504</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>1619</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -767,25 +773,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -793,25 +799,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>1200</v>
+        <v>1791</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -819,51 +825,51 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>56</v>
+        <v>1062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -871,25 +877,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>504</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13">
-        <v>1784</v>
+        <v>29</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -897,25 +903,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14">
-        <v>2186</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -923,25 +929,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G15">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -949,51 +955,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G16">
-        <v>128</v>
+        <v>1062</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G17">
-        <v>34</v>
+        <v>1791</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1001,25 +1007,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18">
-        <v>-6</v>
+        <v>303</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1027,27 +1033,105 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>-12</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>-47</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>-8</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <v>68</v>
+      </c>
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
     <t>2025-05-16</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
     <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>010072</t>
-  </si>
-  <si>
     <t>000328</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
   </si>
   <si>
     <t>000103</t>
-  </si>
-  <si>
-    <t>FITA DUREX 48 X 50 TRANSPARENTE</t>
   </si>
   <si>
     <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
@@ -560,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,25 +579,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>765</v>
+        <v>85</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -617,25 +605,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -643,25 +631,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>127</v>
+        <v>1062</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -669,25 +657,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>1062</v>
+        <v>4</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -695,25 +683,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -721,25 +709,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>83</v>
+        <v>1619</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -747,25 +735,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>504</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>1619</v>
+        <v>49</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -773,25 +761,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>1791</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -799,77 +787,77 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>1791</v>
+        <v>121</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>121</v>
+        <v>1062</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12">
-        <v>1062</v>
+        <v>29</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -880,22 +868,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -906,22 +894,22 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -929,25 +917,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1062</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -955,25 +943,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
       <c r="C16">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16">
-        <v>1062</v>
+        <v>1791</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -981,25 +969,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17">
-        <v>1791</v>
+        <v>303</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1007,77 +995,77 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>303</v>
+        <v>-12</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>-12</v>
+        <v>-47</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>-47</v>
+        <v>-8</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1085,53 +1073,27 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
       <c r="C21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21">
-        <v>-8</v>
+        <v>68</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22">
-        <v>68</v>
-      </c>
-      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
     <t>2025-05-19</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>SERVICO NACIONAL DE APRENDIZAGEM COMERCIAL</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>000328</t>
-  </si>
-  <si>
-    <t>000091</t>
-  </si>
-  <si>
     <t>000032</t>
   </si>
   <si>
@@ -130,6 +118,9 @@
     <t>000288</t>
   </si>
   <si>
+    <t>000103</t>
+  </si>
+  <si>
     <t>001023</t>
   </si>
   <si>
@@ -139,15 +130,6 @@
     <t>000855</t>
   </si>
   <si>
-    <t>000103</t>
-  </si>
-  <si>
-    <t>REFIL MOP UMIDO 290G PONTA DOBRADA C LOOP E CINTA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
@@ -181,6 +163,9 @@
     <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
   </si>
   <si>
     <t>SACO PLAST BD 50X80 N30 PC/25</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
 </sst>
 </file>
@@ -548,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,25 +561,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>1062</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -605,25 +587,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -631,25 +613,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>1062</v>
+        <v>83</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -660,22 +642,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1619</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -683,25 +665,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -709,25 +691,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>1619</v>
+        <v>1791</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -735,51 +717,51 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>1791</v>
+        <v>1062</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -787,51 +769,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>1062</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -839,25 +821,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -865,25 +847,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -891,25 +873,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1062</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -917,25 +899,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>1062</v>
+        <v>1791</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -943,25 +925,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
       </c>
       <c r="G16">
-        <v>1791</v>
+        <v>68</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -969,131 +951,79 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>303</v>
+        <v>-12</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>-12</v>
+        <v>-47</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>-47</v>
+        <v>-8</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
-        <v>-8</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21">
-        <v>68</v>
-      </c>
-      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
     <t>2025-05-20</t>
   </si>
   <si>
@@ -55,18 +52,6 @@
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>NORTH HOTEIS EIRELI</t>
-  </si>
-  <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>BEIRA ALTA INDUSTRIAL LTDA</t>
-  </si>
-  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
@@ -85,27 +70,15 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000877</t>
+  </si>
+  <si>
     <t>000032</t>
   </si>
   <si>
-    <t>010040</t>
-  </si>
-  <si>
-    <t>000034</t>
-  </si>
-  <si>
-    <t>000717</t>
-  </si>
-  <si>
-    <t>000083</t>
-  </si>
-  <si>
-    <t>000098</t>
-  </si>
-  <si>
-    <t>000877</t>
-  </si>
-  <si>
     <t>000897</t>
   </si>
   <si>
@@ -124,33 +97,21 @@
     <t>001023</t>
   </si>
   <si>
+    <t>000855</t>
+  </si>
+  <si>
     <t>000152</t>
   </si>
   <si>
-    <t>000855</t>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>LAPIS PRETO N2 UND LEOELEO</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LONGA NITRILICA VERDE TALGE TAM M PAR</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
     <t>AGUA SANITARIA GLOBO SAN 5L</t>
   </si>
   <si>
@@ -169,10 +130,10 @@
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>SACO PLAST BD 50X80 N30 PC/25</t>
+  </si>
+  <si>
     <t>COPO DESCARTAVEL BRANCO CRISTALCOPO 180ML CX C\25</t>
-  </si>
-  <si>
-    <t>SACO PLAST BD 50X80 N30 PC/25</t>
   </si>
 </sst>
 </file>
@@ -530,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,25 +522,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>1062</v>
+        <v>1791</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -587,51 +548,51 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>1062</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -639,25 +600,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>504</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>1619</v>
+        <v>29</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -665,25 +626,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -691,25 +652,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>1791</v>
+        <v>4</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -717,51 +678,51 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8">
-        <v>121</v>
+        <v>1791</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>1062</v>
+        <v>303</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -769,25 +730,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>1062</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -795,25 +756,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -821,33 +782,33 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -856,16 +817,16 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>303</v>
+        <v>-8</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -873,157 +834,27 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>1062</v>
+        <v>-47</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15">
-        <v>1791</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16">
-        <v>68</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>-12</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>-47</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19">
-        <v>-8</v>
-      </c>
-      <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
     <t>2025-05-21</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -70,24 +64,24 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
+    <t>000877</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>000999</t>
+  </si>
+  <si>
+    <t>000426</t>
+  </si>
+  <si>
     <t>000098</t>
   </si>
   <si>
-    <t>000877</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>000999</t>
-  </si>
-  <si>
-    <t>000426</t>
-  </si>
-  <si>
     <t>000288</t>
   </si>
   <si>
@@ -103,22 +97,22 @@
     <t>000152</t>
   </si>
   <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>ESCOVA DE ACO 3 FILEIRAS</t>
+  </si>
+  <si>
+    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>ESCOVA DE ACO 3 FILEIRAS</t>
-  </si>
-  <si>
-    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
   </si>
   <si>
     <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,77 +516,77 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>1791</v>
+        <v>121</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>121</v>
+        <v>1062</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>1062</v>
+        <v>29</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -603,22 +597,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -629,22 +623,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -652,25 +646,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1791</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -678,25 +672,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1791</v>
+        <v>303</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -704,25 +698,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>303</v>
+        <v>1062</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -730,25 +724,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>1062</v>
+        <v>68</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -756,105 +750,79 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>68</v>
+        <v>-12</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>-8</v>
+        <v>-47</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14">
-        <v>-47</v>
-      </c>
-      <c r="H14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Dia</t>
   </si>
@@ -37,9 +37,6 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
     <t>2025-05-22</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>METALURGICA SATO DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
@@ -64,27 +55,24 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>000877</t>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>000999</t>
+  </si>
+  <si>
+    <t>000426</t>
+  </si>
+  <si>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>000288</t>
   </si>
   <si>
     <t>000032</t>
   </si>
   <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>000999</t>
-  </si>
-  <si>
-    <t>000426</t>
-  </si>
-  <si>
-    <t>000098</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
     <t>000103</t>
   </si>
   <si>
@@ -97,25 +85,22 @@
     <t>000152</t>
   </si>
   <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+    <t>AGUA SANITARIA GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>ESCOVA DE ACO 3 FILEIRAS</t>
+  </si>
+  <si>
+    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>ESCOVA DE ACO 3 FILEIRAS</t>
-  </si>
-  <si>
-    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
@@ -485,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,51 +501,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>1062</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -571,22 +556,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -594,25 +579,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1791</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -620,25 +605,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -646,25 +631,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>1791</v>
+        <v>1062</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -672,25 +657,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -698,51 +683,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>1062</v>
+        <v>-12</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>68</v>
+        <v>-8</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -750,79 +735,27 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>-12</v>
+        <v>-47</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12">
-        <v>-8</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>-47</v>
-      </c>
-      <c r="H13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Dia</t>
   </si>
@@ -37,33 +37,18 @@
     <t>critico</t>
   </si>
   <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
     <t>2025-05-26</t>
   </si>
   <si>
     <t>2025-05-27</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>000897</t>
-  </si>
-  <si>
-    <t>000999</t>
-  </si>
-  <si>
-    <t>000426</t>
-  </si>
-  <si>
     <t>000098</t>
   </si>
   <si>
@@ -83,15 +68,6 @@
   </si>
   <si>
     <t>000152</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>ESCOVA DE ACO 3 FILEIRAS</t>
-  </si>
-  <si>
-    <t>KIT DESCASCADOR DE LEGUMES KEITA</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
@@ -470,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,25 +477,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>1791</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -527,25 +503,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -553,25 +529,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1062</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -579,25 +555,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>1791</v>
+        <v>68</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -605,51 +581,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>303</v>
+        <v>-12</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>1062</v>
+        <v>-8</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -657,105 +633,27 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>68</v>
+        <v>-47</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>-12</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>-47</v>
-      </c>
-      <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>
